--- a/data/yeong/수질/영산포_2020.xlsx
+++ b/data/yeong/수질/영산포_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\yeong\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="113">
   <si>
     <t>dt</t>
   </si>
@@ -351,125 +358,37 @@
   </si>
   <si>
     <t>20200525</t>
-  </si>
-  <si>
-    <t>2020-06-06 12:00</t>
-  </si>
-  <si>
-    <t>20200601</t>
-  </si>
-  <si>
-    <t>2020-06-12 12:00</t>
-  </si>
-  <si>
-    <t>20200608</t>
-  </si>
-  <si>
-    <t>2020-06-18 12:00</t>
-  </si>
-  <si>
-    <t>20200615</t>
-  </si>
-  <si>
-    <t>2020-06-24 12:00</t>
-  </si>
-  <si>
-    <t>20200622</t>
-  </si>
-  <si>
-    <t>2020-07-06 12:00</t>
-  </si>
-  <si>
-    <t>20200706</t>
-  </si>
-  <si>
-    <t>2020-07-12 12:00</t>
-  </si>
-  <si>
-    <t>20200715</t>
-  </si>
-  <si>
-    <t>2020-07-18 12:00</t>
-  </si>
-  <si>
-    <t>20200720</t>
-  </si>
-  <si>
-    <t>2020-07-24 12:00</t>
-  </si>
-  <si>
-    <t>20200727</t>
-  </si>
-  <si>
-    <t>2020-08-06 12:00</t>
-  </si>
-  <si>
-    <t>20200803</t>
-  </si>
-  <si>
-    <t>2020-08-12 12:00</t>
-  </si>
-  <si>
-    <t>20200813</t>
-  </si>
-  <si>
-    <t>2020-08-18 12:00</t>
-  </si>
-  <si>
-    <t>20200818</t>
-  </si>
-  <si>
-    <t>2020-08-24 12:00</t>
-  </si>
-  <si>
-    <t>20200824</t>
-  </si>
-  <si>
-    <t>2020-09-06 12:00</t>
-  </si>
-  <si>
-    <t>20200908</t>
-  </si>
-  <si>
-    <t>2020-09-12 12:00</t>
-  </si>
-  <si>
-    <t>20200914</t>
-  </si>
-  <si>
-    <t>2020-09-18 12:00</t>
-  </si>
-  <si>
-    <t>20200921</t>
-  </si>
-  <si>
-    <t>2020-09-24 12:00</t>
-  </si>
-  <si>
-    <t>20200928</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -487,7 +406,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -495,16 +420,24 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -513,10 +446,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -762,83 +695,80 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.78" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.22" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.22" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.33" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.44" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.78" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.67" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.78" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.25" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1061,7 +991,7 @@
         <v>3.5990000000000002</v>
       </c>
       <c r="AE2" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF2">
         <v>9</v>
@@ -1070,10 +1000,10 @@
         <v>424</v>
       </c>
       <c r="AH2" s="4">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AI2" s="4">
-        <v>14.800000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="AJ2" s="4">
         <v>12.9</v>
@@ -1082,13 +1012,13 @@
         <v>6.6360000000000001</v>
       </c>
       <c r="AL2" s="5">
-        <v>0.070000000000000007</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN2">
         <v>6</v>
       </c>
       <c r="AO2" s="4">
-        <v>83.700000000000003</v>
+        <v>83.7</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -1097,13 +1027,13 @@
         <v>6.2560000000000002</v>
       </c>
       <c r="AR2" s="3">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AS2" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1138,10 +1068,10 @@
         <v>2.6640000000000001</v>
       </c>
       <c r="AE3" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF3" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AG3">
         <v>277</v>
@@ -1150,10 +1080,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AI3" s="4">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AJ3" s="4">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AK3" s="3">
         <v>4.0739999999999998</v>
@@ -1162,13 +1092,13 @@
         <v>0.125</v>
       </c>
       <c r="AN3" s="4">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AO3" s="4">
         <v>11.6</v>
       </c>
       <c r="AP3" s="3">
-        <v>0.098000000000000004</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AQ3" s="3">
         <v>3.9279999999999999</v>
@@ -1177,10 +1107,10 @@
         <v>0.111</v>
       </c>
       <c r="AS3" s="4">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1215,10 +1145,10 @@
         <v>3.2320000000000002</v>
       </c>
       <c r="AE4" s="4">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF4" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AG4">
         <v>304</v>
@@ -1239,25 +1169,25 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AN4" s="4">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="AO4">
         <v>22</v>
       </c>
       <c r="AP4" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AQ4" s="3">
         <v>5.1109999999999998</v>
       </c>
       <c r="AR4" s="3">
-        <v>0.070999999999999994</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="AS4" s="4">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1292,7 +1222,7 @@
         <v>3.359</v>
       </c>
       <c r="AE5" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF5" s="4">
         <v>7.5</v>
@@ -1301,7 +1231,7 @@
         <v>358</v>
       </c>
       <c r="AH5" s="4">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AI5" s="4">
         <v>10.4</v>
@@ -1313,7 +1243,7 @@
         <v>7.1689999999999996</v>
       </c>
       <c r="AL5" s="3">
-        <v>0.053999999999999999</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AN5">
         <v>8</v>
@@ -1322,19 +1252,19 @@
         <v>35.5</v>
       </c>
       <c r="AP5" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AQ5" s="3">
         <v>5.4370000000000003</v>
       </c>
       <c r="AR5" s="3">
-        <v>0.032000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AS5" s="4">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -1366,7 +1296,7 @@
         <v>0.50900000000000001</v>
       </c>
       <c r="AD6" s="5">
-        <v>3.0899999999999999</v>
+        <v>3.09</v>
       </c>
       <c r="AE6" s="4">
         <v>7.5</v>
@@ -1378,13 +1308,13 @@
         <v>320</v>
       </c>
       <c r="AH6" s="4">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="AI6" s="4">
-        <v>20.800000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="AJ6" s="4">
-        <v>17.800000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="AK6" s="3">
         <v>4.8179999999999996</v>
@@ -1393,25 +1323,25 @@
         <v>0.121</v>
       </c>
       <c r="AN6" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AO6" s="4">
         <v>84.5</v>
       </c>
       <c r="AP6" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ6" s="3">
         <v>4.157</v>
       </c>
       <c r="AR6" s="3">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AS6" s="4">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1446,7 +1376,7 @@
         <v>3.0950000000000002</v>
       </c>
       <c r="AE7" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF7" s="4">
         <v>7.5</v>
@@ -1458,16 +1388,16 @@
         <v>3</v>
       </c>
       <c r="AI7" s="4">
-        <v>26.699999999999999</v>
+        <v>26.7</v>
       </c>
       <c r="AJ7" s="4">
-        <v>16.300000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="AK7" s="3">
         <v>5.944</v>
       </c>
       <c r="AL7" s="5">
-        <v>0.050000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="AN7">
         <v>7</v>
@@ -1476,19 +1406,19 @@
         <v>149.30000000000001</v>
       </c>
       <c r="AP7" s="3">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ7" s="3">
         <v>5.7279999999999998</v>
       </c>
       <c r="AR7" s="3">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AS7" s="4">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1523,7 +1453,7 @@
         <v>3.379</v>
       </c>
       <c r="AE8" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF8" s="4">
         <v>9.3000000000000007</v>
@@ -1535,37 +1465,37 @@
         <v>4.5</v>
       </c>
       <c r="AI8" s="4">
-        <v>12.800000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="AJ8" s="4">
-        <v>12.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AK8" s="3">
         <v>6.867</v>
       </c>
       <c r="AL8" s="3">
-        <v>0.083000000000000004</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AN8" s="4">
         <v>7.5</v>
       </c>
       <c r="AO8" s="4">
-        <v>73.200000000000003</v>
+        <v>73.2</v>
       </c>
       <c r="AP8" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AQ8" s="3">
         <v>6.4470000000000001</v>
       </c>
       <c r="AR8" s="3">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AS8" s="4">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1600,7 +1530,7 @@
         <v>2.6589999999999998</v>
       </c>
       <c r="AE9" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF9" s="4">
         <v>10.9</v>
@@ -1609,13 +1539,13 @@
         <v>402</v>
       </c>
       <c r="AH9" s="4">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AI9" s="4">
         <v>19.600000000000001</v>
       </c>
       <c r="AJ9" s="4">
-        <v>16.800000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="AK9" s="3">
         <v>5.4139999999999997</v>
@@ -1624,7 +1554,7 @@
         <v>0.158</v>
       </c>
       <c r="AN9" s="4">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AO9">
         <v>87</v>
@@ -1636,13 +1566,13 @@
         <v>5.0819999999999999</v>
       </c>
       <c r="AR9" s="3">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AS9" s="4">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1677,10 +1607,10 @@
         <v>2.2570000000000001</v>
       </c>
       <c r="AE10" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF10" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AG10">
         <v>385</v>
@@ -1692,13 +1622,13 @@
         <v>16.399999999999999</v>
       </c>
       <c r="AJ10" s="4">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AK10" s="3">
         <v>5.9470000000000001</v>
       </c>
       <c r="AL10" s="5">
-        <v>0.14999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="AN10">
         <v>10</v>
@@ -1707,19 +1637,19 @@
         <v>137.30000000000001</v>
       </c>
       <c r="AP10" s="3">
-        <v>0.044999999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AQ10" s="3">
         <v>5.468</v>
       </c>
       <c r="AR10" s="3">
-        <v>0.065000000000000002</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AS10" s="4">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1748,7 +1678,7 @@
         <v>89</v>
       </c>
       <c r="AC11" s="5">
-        <v>1.0800000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AD11" s="3">
         <v>2.246</v>
@@ -1763,7 +1693,7 @@
         <v>333</v>
       </c>
       <c r="AH11" s="4">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AI11" s="4">
         <v>20.399999999999999</v>
@@ -1775,13 +1705,13 @@
         <v>4.4390000000000001</v>
       </c>
       <c r="AL11" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AN11" s="4">
-        <v>10.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AO11" s="4">
-        <v>190.90000000000001</v>
+        <v>190.9</v>
       </c>
       <c r="AP11" s="5">
         <v>0.01</v>
@@ -1790,13 +1720,13 @@
         <v>3.5489999999999999</v>
       </c>
       <c r="AR11" s="3">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AS11" s="4">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1840,13 +1770,13 @@
         <v>320</v>
       </c>
       <c r="AH12" s="4">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AI12" s="4">
-        <v>20.800000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="AJ12" s="4">
-        <v>15.800000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="AK12" s="3">
         <v>5.6630000000000003</v>
@@ -1858,22 +1788,22 @@
         <v>11.1</v>
       </c>
       <c r="AO12" s="4">
-        <v>187.90000000000001</v>
+        <v>187.9</v>
       </c>
       <c r="AP12" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AQ12" s="3">
         <v>4.6379999999999999</v>
       </c>
       <c r="AR12" s="3">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AS12" s="4">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1911,13 +1841,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AF13" s="4">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AG13">
         <v>367</v>
       </c>
       <c r="AH13" s="4">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AI13" s="4">
         <v>16.399999999999999</v>
@@ -1929,13 +1859,13 @@
         <v>4.3579999999999997</v>
       </c>
       <c r="AL13" s="3">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AN13" s="4">
         <v>14.4</v>
       </c>
       <c r="AO13" s="4">
-        <v>94.299999999999997</v>
+        <v>94.3</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -1947,10 +1877,10 @@
         <v>0.02</v>
       </c>
       <c r="AS13" s="4">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -1985,7 +1915,7 @@
         <v>2.6120000000000001</v>
       </c>
       <c r="AE14" s="4">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF14" s="4">
         <v>9.1999999999999993</v>
@@ -1997,7 +1927,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AI14" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AJ14" s="4">
         <v>11.4</v>
@@ -2006,7 +1936,7 @@
         <v>7.1829999999999998</v>
       </c>
       <c r="AL14" s="3">
-        <v>0.069000000000000006</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AN14" s="4">
         <v>16.899999999999999</v>
@@ -2015,19 +1945,19 @@
         <v>32.5</v>
       </c>
       <c r="AP14" s="3">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ14" s="3">
         <v>7.0039999999999996</v>
       </c>
       <c r="AR14" s="3">
-        <v>0.035999999999999997</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AS14">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -2062,7 +1992,7 @@
         <v>1.8049999999999999</v>
       </c>
       <c r="AE15" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF15" s="4">
         <v>9.8000000000000007</v>
@@ -2089,22 +2019,22 @@
         <v>15.5</v>
       </c>
       <c r="AO15" s="4">
-        <v>22.100000000000001</v>
+        <v>22.1</v>
       </c>
       <c r="AP15" s="3">
-        <v>0.035000000000000003</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AQ15" s="5">
-        <v>3.5899999999999999</v>
+        <v>3.59</v>
       </c>
       <c r="AR15" s="3">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AS15" s="4">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -2139,19 +2069,19 @@
         <v>1.423</v>
       </c>
       <c r="AE16" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF16" s="4">
-        <v>15.300000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="AG16">
         <v>404</v>
       </c>
       <c r="AH16" s="4">
-        <v>13.300000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="AI16" s="4">
-        <v>15.199999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="AJ16" s="4">
         <v>11.9</v>
@@ -2160,28 +2090,28 @@
         <v>6.3860000000000001</v>
       </c>
       <c r="AL16" s="3">
-        <v>0.083000000000000004</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AN16" s="4">
-        <v>14.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="AO16" s="4">
-        <v>183.69999999999999</v>
+        <v>183.7</v>
       </c>
       <c r="AP16" s="3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AQ16" s="3">
         <v>3.2690000000000001</v>
       </c>
       <c r="AR16" s="3">
-        <v>0.042000000000000003</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AS16" s="4">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -2216,7 +2146,7 @@
         <v>2.0219999999999998</v>
       </c>
       <c r="AE17" s="4">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF17" s="4">
         <v>9.6999999999999993</v>
@@ -2225,7 +2155,7 @@
         <v>342</v>
       </c>
       <c r="AH17" s="4">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AI17">
         <v>12</v>
@@ -2237,28 +2167,28 @@
         <v>6.0549999999999997</v>
       </c>
       <c r="AL17" s="3">
-        <v>0.099000000000000005</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AN17" s="4">
         <v>15.5</v>
       </c>
       <c r="AO17" s="4">
-        <v>59.299999999999997</v>
+        <v>59.3</v>
       </c>
       <c r="AP17" s="3">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ17" s="3">
         <v>5.7750000000000004</v>
       </c>
       <c r="AR17" s="3">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AS17">
         <v>5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -2302,10 +2232,10 @@
         <v>283</v>
       </c>
       <c r="AH18" s="4">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI18" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AJ18" s="4">
         <v>10.9</v>
@@ -2314,28 +2244,28 @@
         <v>3.6230000000000002</v>
       </c>
       <c r="AL18" s="3">
-        <v>0.076999999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="AN18" s="4">
         <v>17.5</v>
       </c>
       <c r="AO18" s="4">
-        <v>45.700000000000003</v>
+        <v>45.7</v>
       </c>
       <c r="AP18" s="3">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ18" s="3">
         <v>3.5920000000000001</v>
       </c>
       <c r="AR18" s="3">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AS18" s="4">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -2370,7 +2300,7 @@
         <v>1.9990000000000001</v>
       </c>
       <c r="AE19" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF19" s="4">
         <v>9.5</v>
@@ -2379,13 +2309,13 @@
         <v>374</v>
       </c>
       <c r="AH19" s="4">
-        <v>3.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="AI19" s="4">
         <v>8.8000000000000007</v>
       </c>
       <c r="AJ19" s="4">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AK19" s="3">
         <v>5.7590000000000003</v>
@@ -2394,25 +2324,25 @@
         <v>0.105</v>
       </c>
       <c r="AN19" s="4">
-        <v>22.100000000000001</v>
+        <v>22.1</v>
       </c>
       <c r="AO19" s="4">
-        <v>26.800000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="AP19" s="3">
-        <v>0.032000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AQ19" s="3">
         <v>5.5970000000000004</v>
       </c>
       <c r="AR19" s="3">
-        <v>0.049000000000000002</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AS19">
         <v>5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -2471,13 +2401,13 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="AN20" s="4">
-        <v>18.699999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="AO20" s="4">
         <v>11.6</v>
       </c>
       <c r="AP20" s="3">
-        <v>0.071999999999999995</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AQ20" s="3">
         <v>4.3949999999999996</v>
@@ -2486,10 +2416,10 @@
         <v>0.106</v>
       </c>
       <c r="AS20" s="4">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -2524,10 +2454,10 @@
         <v>1.494</v>
       </c>
       <c r="AE21" s="4">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF21" s="4">
-        <v>12.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AG21">
         <v>276</v>
@@ -2536,37 +2466,37 @@
         <v>10</v>
       </c>
       <c r="AI21" s="4">
-        <v>16.800000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="AJ21">
         <v>10</v>
       </c>
       <c r="AK21" s="5">
-        <v>4.5099999999999998</v>
+        <v>4.51</v>
       </c>
       <c r="AL21" s="3">
         <v>0.127</v>
       </c>
       <c r="AN21" s="4">
-        <v>21.800000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="AO21">
         <v>56</v>
       </c>
       <c r="AP21" s="3">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AQ21" s="3">
         <v>4.0410000000000004</v>
       </c>
       <c r="AR21" s="3">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AS21" s="4">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -2601,19 +2531,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AE22" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF22" s="4">
-        <v>12.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AG22">
         <v>244</v>
       </c>
       <c r="AH22" s="4">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AI22" s="4">
-        <v>15.199999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="AJ22" s="4">
         <v>10.1</v>
@@ -2625,1257 +2555,26 @@
         <v>0.128</v>
       </c>
       <c r="AN22" s="4">
-        <v>21.699999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="AO22" s="4">
         <v>65.099999999999994</v>
       </c>
       <c r="AP22" s="3">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AQ22" s="3">
         <v>2.5790000000000002</v>
       </c>
       <c r="AR22" s="3">
-        <v>0.045999999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AS22" s="4">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F23" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1.208</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>1.369</v>
-      </c>
-      <c r="AE23" s="4">
-        <v>7.5999999999999996</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>10.300000000000001</v>
-      </c>
-      <c r="AG23">
-        <v>282</v>
-      </c>
-      <c r="AH23">
-        <v>4</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>10.800000000000001</v>
-      </c>
-      <c r="AJ23" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>4.0609999999999999</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="AN23" s="4">
-        <v>21.600000000000001</v>
-      </c>
-      <c r="AO23" s="4">
-        <v>28.800000000000001</v>
-      </c>
-      <c r="AP23" s="3">
-        <v>0.034000000000000002</v>
-      </c>
-      <c r="AQ23" s="3">
-        <v>3.7869999999999999</v>
-      </c>
-      <c r="AR23" s="3">
-        <v>0.066000000000000003</v>
-      </c>
-      <c r="AS23" s="4">
-        <v>6.2000000000000002</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>1.337</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="AE24" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="AG24">
-        <v>300</v>
-      </c>
-      <c r="AH24" s="4">
-        <v>2.6000000000000001</v>
-      </c>
-      <c r="AI24" s="4">
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="AJ24" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>3.9849999999999999</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>0.047</v>
-      </c>
-      <c r="AN24" s="4">
-        <v>29.300000000000001</v>
-      </c>
-      <c r="AO24" s="4">
-        <v>30.199999999999999</v>
-      </c>
-      <c r="AP24" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="AQ24" s="3">
-        <v>3.7839999999999998</v>
-      </c>
-      <c r="AR24" s="3">
-        <v>0.035000000000000003</v>
-      </c>
-      <c r="AS24" s="4">
-        <v>6.2000000000000002</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="AE25" s="4">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AG25">
-        <v>182</v>
-      </c>
-      <c r="AH25" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="AI25" s="4">
-        <v>11.199999999999999</v>
-      </c>
-      <c r="AJ25" s="4">
-        <v>6.2999999999999998</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>3.181</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="AN25" s="4">
-        <v>28.100000000000001</v>
-      </c>
-      <c r="AO25" s="4">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>0.121</v>
-      </c>
-      <c r="AQ25" s="5">
-        <v>2.9199999999999999</v>
-      </c>
-      <c r="AR25" s="3">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="AS25" s="4">
-        <v>5.7999999999999998</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>1.798</v>
-      </c>
-      <c r="AE26" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>14.699999999999999</v>
-      </c>
-      <c r="AG26">
-        <v>186</v>
-      </c>
-      <c r="AH26" s="4">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="AI26" s="4">
-        <v>21.600000000000001</v>
-      </c>
-      <c r="AJ26" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>3.2519999999999998</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>0.187</v>
-      </c>
-      <c r="AN26" s="4">
-        <v>27.300000000000001</v>
-      </c>
-      <c r="AO26" s="4">
-        <v>208.5</v>
-      </c>
-      <c r="AP26" s="3">
-        <v>0.035999999999999997</v>
-      </c>
-      <c r="AQ26" s="3">
-        <v>2.7189999999999999</v>
-      </c>
-      <c r="AR26" s="5">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="AS26" s="4">
-        <v>5.5999999999999996</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>1.5580000000000001</v>
-      </c>
-      <c r="AE27" s="4">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="AF27">
-        <v>9</v>
-      </c>
-      <c r="AG27">
-        <v>219</v>
-      </c>
-      <c r="AH27" s="4">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="AI27">
-        <v>12</v>
-      </c>
-      <c r="AJ27" s="4">
-        <v>12.699999999999999</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>2.7749999999999999</v>
-      </c>
-      <c r="AL27" s="3">
-        <v>0.096000000000000002</v>
-      </c>
-      <c r="AN27" s="4">
-        <v>21.699999999999999</v>
-      </c>
-      <c r="AO27" s="4">
-        <v>84.5</v>
-      </c>
-      <c r="AP27" s="3">
-        <v>0.012</v>
-      </c>
-      <c r="AQ27" s="3">
-        <v>2.677</v>
-      </c>
-      <c r="AR27" s="3">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="AS27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>1.7210000000000001</v>
-      </c>
-      <c r="AE28" s="4">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AG28">
-        <v>132</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>2.7999999999999998</v>
-      </c>
-      <c r="AI28">
-        <v>30</v>
-      </c>
-      <c r="AJ28" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>2.5819999999999999</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AN28" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="AO28" s="4">
-        <v>6.2000000000000002</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>0.085000000000000006</v>
-      </c>
-      <c r="AQ28" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="AR28" s="3">
-        <v>0.109</v>
-      </c>
-      <c r="AS28" s="4">
-        <v>4.7000000000000002</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F29" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>0.502</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="AE29" s="4">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>5.7999999999999998</v>
-      </c>
-      <c r="AG29">
-        <v>182</v>
-      </c>
-      <c r="AH29" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="AI29" s="4">
-        <v>13.199999999999999</v>
-      </c>
-      <c r="AJ29" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>2.7240000000000002</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>0.121</v>
-      </c>
-      <c r="AN29" s="4">
-        <v>24.100000000000001</v>
-      </c>
-      <c r="AO29">
-        <v>17</v>
-      </c>
-      <c r="AP29" s="3">
-        <v>0.071999999999999995</v>
-      </c>
-      <c r="AQ29" s="3">
-        <v>2.5640000000000001</v>
-      </c>
-      <c r="AR29" s="3">
-        <v>0.085999999999999993</v>
-      </c>
-      <c r="AS29" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F30" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>0.373</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="AE30" s="4">
-        <v>7.4000000000000004</v>
-      </c>
-      <c r="AF30" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AG30">
-        <v>142</v>
-      </c>
-      <c r="AH30" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI30" s="4">
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="AJ30" s="4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>2.1890000000000001</v>
-      </c>
-      <c r="AL30" s="3">
-        <v>0.105</v>
-      </c>
-      <c r="AN30" s="4">
-        <v>21.300000000000001</v>
-      </c>
-      <c r="AO30" s="4">
-        <v>6.0999999999999996</v>
-      </c>
-      <c r="AP30" s="3">
-        <v>0.085000000000000006</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>2.1619999999999999</v>
-      </c>
-      <c r="AR30" s="3">
-        <v>0.091999999999999998</v>
-      </c>
-      <c r="AS30" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F31" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>0.313</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="AE31" s="4">
-        <v>7.4000000000000004</v>
-      </c>
-      <c r="AF31" s="4">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="AG31">
-        <v>150</v>
-      </c>
-      <c r="AH31" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AI31" s="4">
-        <v>69.200000000000003</v>
-      </c>
-      <c r="AJ31" s="4">
-        <v>8.0999999999999996</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>2.581</v>
-      </c>
-      <c r="AL31" s="3">
-        <v>0.114</v>
-      </c>
-      <c r="AN31" s="4">
-        <v>26.199999999999999</v>
-      </c>
-      <c r="AO31" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="AP31" s="3">
-        <v>0.084000000000000005</v>
-      </c>
-      <c r="AQ31" s="3">
-        <v>2.2890000000000001</v>
-      </c>
-      <c r="AR31" s="5">
-        <v>0.089999999999999997</v>
-      </c>
-      <c r="AS31" s="4">
-        <v>3.6000000000000001</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F32" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>1.4830000000000001</v>
-      </c>
-      <c r="AE32" s="4">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF32" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AG32">
-        <v>131</v>
-      </c>
-      <c r="AH32" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="AI32">
-        <v>16</v>
-      </c>
-      <c r="AJ32">
-        <v>9</v>
-      </c>
-      <c r="AK32" s="3">
-        <v>2.649</v>
-      </c>
-      <c r="AL32" s="3">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AN32" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="AO32" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="AP32" s="3">
-        <v>0.098000000000000004</v>
-      </c>
-      <c r="AQ32" s="3">
-        <v>2.4540000000000002</v>
-      </c>
-      <c r="AR32" s="3">
-        <v>0.106</v>
-      </c>
-      <c r="AS32" s="4">
-        <v>2.8999999999999999</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F33" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>1.823</v>
-      </c>
-      <c r="AE33">
-        <v>9</v>
-      </c>
-      <c r="AF33" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AG33">
-        <v>192</v>
-      </c>
-      <c r="AH33" s="4">
-        <v>5.9000000000000004</v>
-      </c>
-      <c r="AI33" s="4">
-        <v>15.199999999999999</v>
-      </c>
-      <c r="AJ33" s="4">
-        <v>12.199999999999999</v>
-      </c>
-      <c r="AK33" s="3">
-        <v>2.7029999999999998</v>
-      </c>
-      <c r="AL33" s="3">
-        <v>0.097000000000000003</v>
-      </c>
-      <c r="AN33" s="4">
-        <v>32.399999999999999</v>
-      </c>
-      <c r="AO33" s="4">
-        <v>56.299999999999997</v>
-      </c>
-      <c r="AP33" s="3">
-        <v>0.019</v>
-      </c>
-      <c r="AQ33" s="3">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="AR33" s="3">
-        <v>0.039</v>
-      </c>
-      <c r="AS33" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F34" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>0.495</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="AE34">
-        <v>8</v>
-      </c>
-      <c r="AF34" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AG34">
-        <v>242</v>
-      </c>
-      <c r="AH34" s="4">
-        <v>2.8999999999999999</v>
-      </c>
-      <c r="AI34" s="4">
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="AJ34" s="4">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="AK34" s="3">
-        <v>2.859</v>
-      </c>
-      <c r="AL34" s="3">
-        <v>0.128</v>
-      </c>
-      <c r="AN34">
-        <v>30</v>
-      </c>
-      <c r="AO34" s="4">
-        <v>23.699999999999999</v>
-      </c>
-      <c r="AP34" s="3">
-        <v>0.067000000000000004</v>
-      </c>
-      <c r="AQ34" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="AR34" s="5">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="AS34" s="4">
-        <v>3.7999999999999998</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F35" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>0.436</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>1.2909999999999999</v>
-      </c>
-      <c r="AE35" s="4">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF35">
-        <v>7</v>
-      </c>
-      <c r="AG35">
-        <v>129</v>
-      </c>
-      <c r="AH35" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="AI35">
-        <v>42</v>
-      </c>
-      <c r="AJ35" s="4">
-        <v>6.4000000000000004</v>
-      </c>
-      <c r="AK35" s="3">
-        <v>2.1669999999999998</v>
-      </c>
-      <c r="AL35" s="3">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AN35" s="4">
-        <v>22.600000000000001</v>
-      </c>
-      <c r="AO35" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AP35" s="3">
-        <v>0.108</v>
-      </c>
-      <c r="AQ35" s="3">
-        <v>2.129</v>
-      </c>
-      <c r="AR35" s="3">
-        <v>0.112</v>
-      </c>
-      <c r="AS35" s="4">
-        <v>3.2000000000000002</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F36" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="AE36" s="4">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF36">
-        <v>6</v>
-      </c>
-      <c r="AG36">
-        <v>152</v>
-      </c>
-      <c r="AH36" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="AI36" s="4">
-        <v>11.199999999999999</v>
-      </c>
-      <c r="AJ36" s="4">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="AK36" s="3">
-        <v>2.4990000000000001</v>
-      </c>
-      <c r="AL36" s="3">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AN36" s="4">
-        <v>24.199999999999999</v>
-      </c>
-      <c r="AO36" s="4">
-        <v>3.2999999999999998</v>
-      </c>
-      <c r="AP36" s="3">
-        <v>0.098000000000000004</v>
-      </c>
-      <c r="AQ36" s="5">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="AR36" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="AS36" s="4">
-        <v>3.2999999999999998</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F37" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>0.085999999999999993</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>1.851</v>
-      </c>
-      <c r="AE37" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AF37" s="4">
-        <v>6.4000000000000004</v>
-      </c>
-      <c r="AG37">
-        <v>172</v>
-      </c>
-      <c r="AH37" s="4">
-        <v>3.2999999999999998</v>
-      </c>
-      <c r="AI37" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="AJ37" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AK37" s="3">
-        <v>2.5779999999999998</v>
-      </c>
-      <c r="AL37" s="3">
-        <v>0.072999999999999995</v>
-      </c>
-      <c r="AN37" s="4">
-        <v>22.699999999999999</v>
-      </c>
-      <c r="AO37" s="4">
-        <v>89.400000000000006</v>
-      </c>
-      <c r="AP37" s="3">
-        <v>0.017000000000000001</v>
-      </c>
-      <c r="AQ37" s="3">
-        <v>2.484</v>
-      </c>
-      <c r="AR37" s="3">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="AS37" s="4">
-        <v>3.2000000000000002</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2">
-        <v>35.004615999999999</v>
-      </c>
-      <c r="F38" s="2">
-        <v>126.680375</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>0.024</v>
-      </c>
-      <c r="AD38" s="5">
-        <v>1.9299999999999999</v>
-      </c>
-      <c r="AE38">
-        <v>9</v>
-      </c>
-      <c r="AF38" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AG38">
-        <v>243</v>
-      </c>
-      <c r="AH38" s="4">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="AI38" s="4">
-        <v>18.800000000000001</v>
-      </c>
-      <c r="AJ38" s="4">
-        <v>18.800000000000001</v>
-      </c>
-      <c r="AK38" s="3">
-        <v>2.9940000000000002</v>
-      </c>
-      <c r="AL38" s="3">
-        <v>0.081000000000000003</v>
-      </c>
-      <c r="AN38">
-        <v>21</v>
-      </c>
-      <c r="AO38" s="4">
-        <v>56.200000000000003</v>
-      </c>
-      <c r="AP38" s="3">
-        <v>0.0060000000000000001</v>
-      </c>
-      <c r="AQ38" s="3">
-        <v>2.6240000000000001</v>
-      </c>
-      <c r="AR38" s="3">
-        <v>0.019</v>
-      </c>
-      <c r="AS38" s="4">
-        <v>3.7999999999999998</v>
-      </c>
-    </row>
-    <row r="39"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>